--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/3.BaoGiaBH/BG210709_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/3.BaoGiaBH/BG210709_TechGlobal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Nguyễn Minh Tùng</t>
+  </si>
+  <si>
+    <t>Imei note đỏ báo giá khách không sửa chữa</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +302,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -661,7 +670,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,12 +742,120 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,15 +865,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -787,77 +895,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1215,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="84" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1244,94 +1289,94 @@
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="81"/>
     </row>
     <row r="4" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
     </row>
     <row r="5" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="12"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -1339,13 +1384,13 @@
     </row>
     <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="13"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -1353,13 +1398,13 @@
     </row>
     <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="13"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -1367,13 +1412,13 @@
     </row>
     <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="13"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -1382,13 +1427,13 @@
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="14"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -1435,13 +1480,13 @@
       <c r="B13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="31">
         <v>868183034787049</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="29" t="s">
@@ -1469,13 +1514,13 @@
       <c r="B14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="31">
         <v>867857039912956</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -1497,34 +1542,34 @@
       <c r="AA14" s="15"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="40">
         <v>3</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="43">
         <v>868183034751862</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="40">
         <v>1</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="41">
         <v>250000</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="41">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
@@ -1537,13 +1582,13 @@
       <c r="B16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="31">
         <v>868183034752076</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="29" t="s">
@@ -1571,13 +1616,13 @@
       <c r="B17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="49">
+      <c r="C17" s="31">
         <v>868183034608229</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="29" t="s">
@@ -1599,154 +1644,154 @@
       <c r="AA17" s="15"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="40">
         <v>6</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="43">
         <v>864811036990062</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="40">
         <v>1</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="49">
         <v>385000</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="41">
         <f t="shared" si="0"/>
         <v>385000</v>
       </c>
       <c r="AA18" s="15"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="40">
         <v>7</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="49">
+      <c r="C19" s="43">
         <v>868345035586627</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="40">
         <v>1</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="41">
         <v>138000</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="41">
         <f t="shared" si="0"/>
         <v>138000</v>
       </c>
       <c r="AA19" s="15"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="56">
+      <c r="A20" s="62">
         <v>8</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="82">
         <v>865209034372103</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="40">
         <v>2</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="41">
         <v>12000</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="41">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="AA20" s="15"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="51" t="s">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="40">
         <v>1</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="41">
         <v>125000</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="41">
         <f t="shared" si="0"/>
         <v>125000</v>
       </c>
       <c r="AA21" s="15"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="51" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="40">
         <v>1</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="42">
         <v>385000</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="41">
         <f t="shared" si="0"/>
         <v>385000</v>
       </c>
@@ -1756,16 +1801,16 @@
       <c r="A23" s="28">
         <v>9</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="67">
         <v>862118021515306</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="29" t="s">
@@ -1790,10 +1835,10 @@
       <c r="A24" s="28">
         <v>10</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="51" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="33" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="29" t="s">
@@ -1815,20 +1860,20 @@
       <c r="AA24" s="15"/>
     </row>
     <row r="25" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
       <c r="J25" s="30">
-        <f>SUM(J18:J24)</f>
-        <v>1107000</v>
+        <f>SUM(J13,J14,J16,J17,J23,J24)</f>
+        <v>98000</v>
       </c>
       <c r="AA25" s="15"/>
     </row>
@@ -1847,10 +1892,12 @@
     </row>
     <row r="27" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="B27" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -1859,31 +1906,31 @@
       <c r="AA27" s="15"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="24"/>
       <c r="AA28" s="15"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
       <c r="AA29" s="15"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -1910,20 +1957,20 @@
       <c r="AA33" s="15"/>
     </row>
     <row r="34" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33" t="s">
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
       <c r="AA34" s="15"/>
     </row>
     <row r="35" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
